--- a/biology/Botanique/Oltrepò_pavese_(vin)/Oltrepò_pavese_(vin).xlsx
+++ b/biology/Botanique/Oltrepò_pavese_(vin)/Oltrepò_pavese_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination Oltrepò Pavese est réservée aux vins DOC produits sur les collines de la province de Pavie, en Lombardie, au sud du Pô, dans une zone appelée Oltrepò pavese, insérée entre la province de Plaisance en Émilie-Romagne et la province d'Alexandrie au Piémont.
 À partir des vendanges 2007, l’appellation DOCG a été reconnue pour les  vins mousseux ou spumante (Oltrepò Pavese metodo classico).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des découvertes archéologiques témoignent de la propagation de la vigne dans Oltrepò déjà à l’époque romaine et cette culture a été maintenue pendant le haut Moyen Âge par les moines de l’abbaye de Bobbio, qui entre 862 et 865 étaient propriétaires de vignobles dans la vallée Staffora. À partir du XIe siècle, la viticulture, sous l’impulsion des grands monastères de Pavie, connut un développement particulier surtout dans la première bande de collines. Certaines entités ecclésiastiques, comme le monastère de San Pietro in Ciel d’Oro, qui possédait depuis 974 au moins des vignes et des pressoirs à vin près de San Damiano al Colle, ont étendu la culture de la vigne dans la région, produisant des vins qui, grâce au Pô et au Tessin, ont ensuite été transportés à Pavie, où la part non absorbée par la consommation des moines était destinée au commerce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des découvertes archéologiques témoignent de la propagation de la vigne dans Oltrepò déjà à l’époque romaine et cette culture a été maintenue pendant le haut Moyen Âge par les moines de l’abbaye de Bobbio, qui entre 862 et 865 étaient propriétaires de vignobles dans la vallée Staffora. À partir du XIe siècle, la viticulture, sous l’impulsion des grands monastères de Pavie, connut un développement particulier surtout dans la première bande de collines. Certaines entités ecclésiastiques, comme le monastère de San Pietro in Ciel d’Oro, qui possédait depuis 974 au moins des vignes et des pressoirs à vin près de San Damiano al Colle, ont étendu la culture de la vigne dans la région, produisant des vins qui, grâce au Pô et au Tessin, ont ensuite été transportés à Pavie, où la part non absorbée par la consommation des moines était destinée au commerce.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Vins rouges</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oltrepò Pavese Barbera
 Oltrepò Pavese Bonarda
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Vins rosés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oltrepò Pavese Pinot Nero
 Oltrepò Pavese Pinot Nero spumante
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Vins blancs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oltrepò Pavese Chardonnay
 Oltrepò Pavese Cortese
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oltrep%C3%B2_pavese_(vin)</t>
+          <t>Oltrepò_pavese_(vin)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (it) Luciano Maffi, Storia di un territorio rurale. Vigne e vini nell'Oltrepò Pavese. Ambiente, società, economia, Milano, Franco Angeli, 2010, 336 p. (ISBN 9788856817621, lire en ligne), p. 56-62
